--- a/Admin/Zeitplan/Zeitplan_pro4e_team1.xlsx
+++ b/Admin/Zeitplan/Zeitplan_pro4e_team1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Admin\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA04F3DF-3029-495F-B2E6-481288403CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B474EDDF-1D6B-4903-8D13-8D79D9BCE31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="498" xr2:uid="{BE8A865E-3FDD-4D34-8C1C-83EC50A221F2}"/>
   </bookViews>
@@ -268,12 +268,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -652,11 +652,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -739,27 +819,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -768,6 +830,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,18 +854,36 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1176,10 +1271,10 @@
   <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,29 +1286,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="47">
+      <c r="D2" s="65">
         <v>2020</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="19"/>
@@ -1224,16 +1319,18 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="75" t="s">
+        <v>19</v>
+      </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="67"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="64"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
@@ -1262,25 +1359,25 @@
       <c r="J4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="40" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="69"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61"/>
       <c r="T4" s="40" t="s">
         <v>14</v>
       </c>
@@ -1319,16 +1416,16 @@
       <c r="J5" s="18">
         <v>31.04</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="41">
         <v>7.04</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="41">
+      <c r="L5" s="70">
+        <v>14.04</v>
+      </c>
+      <c r="M5" s="67">
         <v>21.04</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="57">
         <v>28.04</v>
       </c>
       <c r="O5" s="22">
@@ -1369,11 +1466,12 @@
         <v>33</v>
       </c>
       <c r="C6" s="26"/>
+      <c r="L6" s="71"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
       <c r="S6" s="11"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
@@ -1387,14 +1485,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="50"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="53"/>
       <c r="N7" s="3"/>
       <c r="O7" s="12"/>
       <c r="P7" s="2"/>
@@ -1408,24 +1506,22 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="77">
         <v>43886</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="53">
-        <v>1</v>
-      </c>
+      <c r="E8" s="78"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="3"/>
       <c r="O8" s="12"/>
       <c r="P8" s="2"/>
@@ -1453,10 +1549,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="53"/>
       <c r="N9" s="3"/>
       <c r="O9" s="12"/>
       <c r="P9" s="2"/>
@@ -1470,24 +1566,22 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="77">
         <v>43893</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
+      <c r="F10" s="76"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="50"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="3"/>
       <c r="O10" s="12"/>
       <c r="P10" s="2"/>
@@ -1518,15 +1612,15 @@
         <v>1</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="53"/>
       <c r="N11" s="3"/>
       <c r="O11" s="12"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="51"/>
+      <c r="S11" s="48"/>
       <c r="T11" s="4"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
@@ -1547,9 +1641,9 @@
         <v>1</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="53"/>
       <c r="N12" s="3"/>
       <c r="O12" s="12"/>
       <c r="P12" s="2"/>
@@ -1576,11 +1670,11 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="53"/>
       <c r="N13" s="3"/>
       <c r="O13" s="12"/>
       <c r="P13" s="2"/>
@@ -1588,16 +1682,16 @@
       <c r="R13" s="3"/>
       <c r="S13" s="13"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="79">
         <v>43942</v>
       </c>
       <c r="D14" s="4"/>
@@ -1607,11 +1701,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="80"/>
       <c r="N14" s="3"/>
       <c r="O14" s="12"/>
       <c r="P14" s="2"/>
@@ -1636,9 +1728,9 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="53"/>
       <c r="N15" s="3">
         <v>1</v>
       </c>
@@ -1654,10 +1746,10 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="77" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="4"/>
@@ -1667,9 +1759,9 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="53"/>
       <c r="N16" s="3"/>
       <c r="O16" s="12"/>
       <c r="P16" s="2"/>
@@ -1694,9 +1786,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="3"/>
       <c r="O17" s="12"/>
       <c r="P17" s="2"/>
@@ -1712,10 +1804,10 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="79">
         <v>43977</v>
       </c>
       <c r="D18" s="4"/>
@@ -1725,9 +1817,9 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="53"/>
       <c r="N18" s="3"/>
       <c r="O18" s="12"/>
       <c r="P18" s="2"/>
@@ -1736,9 +1828,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="4"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2">
-        <v>1</v>
-      </c>
+      <c r="V18" s="78"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
@@ -1756,9 +1846,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="53"/>
       <c r="N19" s="3"/>
       <c r="O19" s="12"/>
       <c r="P19" s="2"/>
@@ -1774,17 +1864,18 @@
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F20" s="49"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="28"/>
-      <c r="J20" s="49"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="28"/>
-      <c r="N20" s="64"/>
+      <c r="L20" s="71"/>
+      <c r="N20" s="56"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
       <c r="S20" s="45"/>
-      <c r="U20" s="49"/>
+      <c r="U20" s="46"/>
       <c r="V20" s="28"/>
       <c r="W20" s="28"/>
       <c r="X20" s="28"/>
@@ -1796,17 +1887,18 @@
       <c r="C21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="30"/>
-      <c r="J21" s="49"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="30"/>
-      <c r="N21" s="64"/>
+      <c r="L21" s="71"/>
+      <c r="N21" s="56"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
       <c r="S21" s="45"/>
-      <c r="U21" s="49"/>
+      <c r="U21" s="46"/>
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
       <c r="X21" s="30"/>
@@ -1816,27 +1908,27 @@
         <v>34</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
@@ -1849,23 +1941,23 @@
       <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="50">
         <v>3</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="53"/>
       <c r="N23" s="3"/>
       <c r="O23" s="12"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="3"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="61"/>
+      <c r="T23" s="53"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -1889,16 +1981,16 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="53"/>
       <c r="N24" s="3"/>
       <c r="O24" s="12"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="61"/>
+      <c r="T24" s="53"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -1910,7 +2002,7 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="57"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="3">
         <v>3</v>
       </c>
@@ -1924,16 +2016,16 @@
         <v>3</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="53"/>
       <c r="N25" s="3"/>
       <c r="O25" s="12"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="61"/>
+      <c r="T25" s="53"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -1945,7 +2037,7 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="57"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2">
@@ -1954,17 +2046,17 @@
       <c r="I26" s="2">
         <v>3</v>
       </c>
-      <c r="J26" s="57"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="3"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="53"/>
       <c r="N26" s="3"/>
       <c r="O26" s="12"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="3"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="61"/>
+      <c r="T26" s="53"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -1976,7 +2068,7 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="57"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1986,16 +2078,16 @@
       <c r="J27" s="2">
         <v>3</v>
       </c>
-      <c r="K27" s="4"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="3"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="53"/>
       <c r="N27" s="3"/>
       <c r="O27" s="12"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="3"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="61"/>
+      <c r="T27" s="53"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -2006,27 +2098,27 @@
         <v>39</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="49"/>
+      <c r="X28" s="49"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
@@ -2042,18 +2134,18 @@
       <c r="J29" s="2">
         <v>3</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="53">
         <v>3</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="61"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="53"/>
       <c r="N29" s="3"/>
       <c r="O29" s="12"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="3"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="61"/>
+      <c r="T29" s="53"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
@@ -2071,45 +2163,49 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="61"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="53"/>
       <c r="N30" s="3"/>
       <c r="O30" s="12"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="3"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="61"/>
+      <c r="T30" s="53"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
+      <c r="W30" s="2">
+        <v>3</v>
+      </c>
+      <c r="X30" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="8"/>
@@ -2121,16 +2217,16 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="3"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="53"/>
       <c r="N32" s="3"/>
       <c r="O32" s="12"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="3"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="61"/>
+      <c r="T32" s="53"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
@@ -2146,16 +2242,16 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="3"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="53"/>
       <c r="N33" s="3"/>
       <c r="O33" s="31"/>
       <c r="P33" s="32"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="29"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="61"/>
+      <c r="T33" s="53"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
@@ -2171,16 +2267,16 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="3"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="53"/>
       <c r="N34" s="3"/>
       <c r="O34" s="14"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="43"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="61"/>
+      <c r="T34" s="53"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
@@ -2197,7 +2293,7 @@
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="L35" s="46"/>
       <c r="M35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>

--- a/Admin/Zeitplan/Zeitplan_pro4e_team1.xlsx
+++ b/Admin/Zeitplan/Zeitplan_pro4e_team1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Admin\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B474EDDF-1D6B-4903-8D13-8D79D9BCE31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17E728-1352-410A-A3E7-D7AB1A7D8A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="498" xr2:uid="{BE8A865E-3FDD-4D34-8C1C-83EC50A221F2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Arbeitspakete</t>
   </si>
@@ -98,39 +98,9 @@
     <t>Kickoff</t>
   </si>
   <si>
-    <t>Zwischenpräsentation</t>
-  </si>
-  <si>
-    <t>Input KOM</t>
-  </si>
-  <si>
-    <t>Input PM</t>
-  </si>
-  <si>
-    <t>Schlusspräsentation, Fachbericht, Statusbericht 4</t>
-  </si>
-  <si>
-    <t>Input Fachbericht, Fact Sheet, Reflexion</t>
-  </si>
-  <si>
-    <t>Input Englisch (Agendas, meetings, minutes)</t>
-  </si>
-  <si>
-    <t>Input Englisch (Abstracts, management summary)</t>
-  </si>
-  <si>
-    <t>Abgabe Statusbericht 1</t>
-  </si>
-  <si>
     <t>Abgabe Verhaltensregeln</t>
   </si>
   <si>
-    <t>Abgabe Pflichtenhefte definitive Version</t>
-  </si>
-  <si>
-    <t>Abgabe Statusbericht 2, Dispo und Einleitung</t>
-  </si>
-  <si>
     <t>Abgabe Statusbericht 3</t>
   </si>
   <si>
@@ -143,15 +113,9 @@
     <t>1.2. Vergleich der Konzepte</t>
   </si>
   <si>
-    <t>1.5. Prototyp bauen</t>
-  </si>
-  <si>
     <t>1.3. Erstellen fachliches PH / Zielformulierung</t>
   </si>
   <si>
-    <t>1.4. Planung eines einfachen Prototyps</t>
-  </si>
-  <si>
     <t>2. Präsentationen</t>
   </si>
   <si>
@@ -165,6 +129,57 @@
   </si>
   <si>
     <t>Verantwortlich</t>
+  </si>
+  <si>
+    <t>Input PM, Workshop 1 (1.021)</t>
+  </si>
+  <si>
+    <t>Input Englisch, Workshop 2 (1.021)</t>
+  </si>
+  <si>
+    <t>Abgabe Pflichtenhefte (org. und Entwurf fachl.)</t>
+  </si>
+  <si>
+    <t>Feedback Pflichtenhefte (1.331)</t>
+  </si>
+  <si>
+    <t>Abgabe def. fachl. PH, Statusbericht 1</t>
+  </si>
+  <si>
+    <t>Zwischenpräsentation (1.045)</t>
+  </si>
+  <si>
+    <t>Input KOM (1.331)</t>
+  </si>
+  <si>
+    <t>Abgabe Dispo und Einleitung</t>
+  </si>
+  <si>
+    <t>Abgabe Statusbericht 2</t>
+  </si>
+  <si>
+    <t>Input Fachbericht, Feedback Einleitung</t>
+  </si>
+  <si>
+    <t>Input Englisch (1.331)</t>
+  </si>
+  <si>
+    <t>Schlusspräsentation, Abgabe Fachbericht, Statusbericht 4, Fact Sheet (6.-1D09)</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>1.4. Erstellen org. PH</t>
+  </si>
+  <si>
+    <t>1.5. Planung eines einfachen Prototyps</t>
+  </si>
+  <si>
+    <t>1.6. Prototyp bauen</t>
+  </si>
+  <si>
+    <t>JJ</t>
   </si>
 </sst>
 </file>
@@ -205,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,12 +283,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -732,11 +753,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -836,30 +889,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,15 +904,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1268,13 +1324,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:Z37"/>
+  <dimension ref="B2:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,29 +1342,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="65">
+      <c r="D2" s="74">
         <v>2020</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="19"/>
@@ -1319,18 +1375,18 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="67" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="64"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="73"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
@@ -1362,7 +1418,7 @@
       <c r="K4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="61" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="40" t="s">
@@ -1371,13 +1427,13 @@
       <c r="N4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="70"/>
       <c r="T4" s="40" t="s">
         <v>14</v>
       </c>
@@ -1419,10 +1475,10 @@
       <c r="K5" s="41">
         <v>7.04</v>
       </c>
-      <c r="L5" s="70">
+      <c r="L5" s="62">
         <v>14.04</v>
       </c>
-      <c r="M5" s="67">
+      <c r="M5" s="59">
         <v>21.04</v>
       </c>
       <c r="N5" s="57">
@@ -1463,10 +1519,10 @@
     </row>
     <row r="6" spans="2:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" s="26"/>
-      <c r="L6" s="71"/>
+      <c r="L6" s="63"/>
       <c r="N6" s="3"/>
       <c r="O6" s="58"/>
       <c r="P6" s="53"/>
@@ -1481,7 +1537,7 @@
       <c r="C7" s="36">
         <v>43880</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="76">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
@@ -1491,7 +1547,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="72"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="53"/>
       <c r="N7" s="3"/>
       <c r="O7" s="12"/>
@@ -1506,21 +1562,21 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="77">
+      <c r="B8" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="78">
         <v>43886</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="78"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="47"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="72"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="53"/>
       <c r="N8" s="3"/>
       <c r="O8" s="12"/>
@@ -1536,7 +1592,7 @@
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9" s="37">
         <v>43889</v>
@@ -1551,7 +1607,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="47"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="72"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="53"/>
       <c r="N9" s="3"/>
       <c r="O9" s="12"/>
@@ -1566,22 +1622,22 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="77">
+      <c r="B10" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="78">
         <v>43893</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="76"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="68"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="60"/>
       <c r="N10" s="3"/>
       <c r="O10" s="12"/>
       <c r="P10" s="2"/>
@@ -1596,24 +1652,22 @@
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="36"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="36">
+        <v>43900</v>
+      </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="72"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="53"/>
       <c r="N11" s="3"/>
       <c r="O11" s="12"/>
@@ -1629,27 +1683,29 @@
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="36"/>
+        <v>35</v>
+      </c>
+      <c r="C12" s="36">
+        <v>43907</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="H12" s="49">
         <v>1</v>
       </c>
+      <c r="I12" s="49"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="72"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="53"/>
       <c r="N12" s="3"/>
       <c r="O12" s="12"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="13"/>
+      <c r="S12" s="48"/>
       <c r="T12" s="4"/>
       <c r="U12" s="2"/>
       <c r="V12" s="4"/>
@@ -1658,22 +1714,22 @@
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C13" s="36">
-        <v>43928</v>
+        <v>43914</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="72"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="53"/>
       <c r="N13" s="3"/>
       <c r="O13" s="12"/>
@@ -1682,17 +1738,17 @@
       <c r="R13" s="3"/>
       <c r="S13" s="13"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="4"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="79">
-        <v>43942</v>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="36">
+        <v>43928</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -1701,9 +1757,11 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="80"/>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="53"/>
       <c r="N14" s="3"/>
       <c r="O14" s="12"/>
       <c r="P14" s="2"/>
@@ -1711,16 +1769,18 @@
       <c r="R14" s="3"/>
       <c r="S14" s="13"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="54"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="38"/>
+      <c r="B15" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="80">
+        <v>43942</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
@@ -1729,11 +1789,9 @@
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
+      <c r="L15" s="64"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="12"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1746,11 +1804,11 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>1</v>
+      <c r="B16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="36">
+        <v>43953</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -1760,9 +1818,11 @@
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
       <c r="O16" s="12"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1776,9 +1836,11 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="38">
+        <v>43956</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -1787,28 +1849,28 @@
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="72"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="53"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="2"/>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="3"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="4">
-        <v>1</v>
-      </c>
+      <c r="T17" s="4"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="79">
-        <v>43977</v>
+      <c r="B18" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="78">
+        <v>43956</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -1818,26 +1880,26 @@
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="72"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="53"/>
       <c r="N18" s="3"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="2"/>
+      <c r="P18" s="79"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
       <c r="S18" s="13"/>
       <c r="T18" s="4"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="78"/>
+      <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="36">
-        <v>43991</v>
+        <v>43963</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
@@ -1847,7 +1909,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="72"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="53"/>
       <c r="N19" s="3"/>
       <c r="O19" s="12"/>
@@ -1855,200 +1917,192 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="4"/>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="2">
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="78">
+        <v>43963</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="80">
+        <v>43977</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="36">
+        <v>43991</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F20" s="46"/>
-      <c r="G20" s="28"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="71"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-    </row>
-    <row r="21" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F23" s="46"/>
+      <c r="G23" s="28"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="63"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+    </row>
+    <row r="24" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="30"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="71"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="45"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="50">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="C24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="46"/>
+      <c r="G24" s="30"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="63"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="45"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="49"/>
-      <c r="F25" s="3">
-        <v>3</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2">
-        <v>3</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="83">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="50">
+        <v>3</v>
+      </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>3</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-      <c r="J26" s="49"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="72"/>
+      <c r="L26" s="64"/>
       <c r="M26" s="53"/>
       <c r="N26" s="3"/>
       <c r="O26" s="12"/>
@@ -2064,22 +2118,26 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3</v>
+      </c>
       <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2">
-        <v>3</v>
-      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="53"/>
-      <c r="L27" s="72"/>
+      <c r="L27" s="64"/>
       <c r="M27" s="53"/>
       <c r="N27" s="3"/>
       <c r="O27" s="12"/>
@@ -2094,50 +2152,58 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="49"/>
+      <c r="B28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
       <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="49"/>
-      <c r="V28" s="49"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="49"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="49">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2">
-        <v>3</v>
-      </c>
-      <c r="K29" s="53">
-        <v>3</v>
-      </c>
-      <c r="L29" s="72"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="64"/>
       <c r="M29" s="53"/>
       <c r="N29" s="3"/>
       <c r="O29" s="12"/>
@@ -2153,18 +2219,22 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+      <c r="J30" s="49"/>
       <c r="K30" s="53"/>
-      <c r="L30" s="72"/>
+      <c r="L30" s="64"/>
       <c r="M30" s="53"/>
       <c r="N30" s="3"/>
       <c r="O30" s="12"/>
@@ -2175,65 +2245,71 @@
       <c r="T30" s="53"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2">
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2">
         <v>3</v>
       </c>
-      <c r="X30" s="2">
+      <c r="J31" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="49"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="49"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="B32" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+      <c r="B33" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2241,15 +2317,19 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="72"/>
+      <c r="J33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="53">
+        <v>3</v>
+      </c>
+      <c r="L33" s="64"/>
       <c r="M33" s="53"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="29"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3"/>
       <c r="S33" s="13"/>
       <c r="T33" s="53"/>
       <c r="U33" s="2"/>
@@ -2257,9 +2337,11 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="27"/>
-      <c r="C34" s="6"/>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
@@ -2268,48 +2350,152 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="53"/>
-      <c r="L34" s="74"/>
+      <c r="L34" s="64"/>
       <c r="M34" s="53"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="16"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="13"/>
       <c r="T34" s="53"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="W34" s="2">
+        <v>3</v>
+      </c>
+      <c r="X34" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="35"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" s="34"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2317,7 +2503,7 @@
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="D2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D32:S32 T32:X34 D7:X31">
+  <conditionalFormatting sqref="D36:S36 T36:X38 D7:X35">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D7)))</formula>
     </cfRule>
@@ -2328,15 +2514,15 @@
       <formula>NOT(ISERROR(SEARCH("1",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:X37 D33:S34">
+  <conditionalFormatting sqref="D39:X41 D37:S38">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",D37)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D33)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",D37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Admin/Zeitplan/Zeitplan_pro4e_team1.xlsx
+++ b/Admin/Zeitplan/Zeitplan_pro4e_team1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\GitHub\pro4e\Admin\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC17E728-1352-410A-A3E7-D7AB1A7D8A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA68CA-CE9F-4227-991E-EA5C33E942F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="498" xr2:uid="{BE8A865E-3FDD-4D34-8C1C-83EC50A221F2}"/>
+    <workbookView xWindow="17940" yWindow="5115" windowWidth="21600" windowHeight="11400" tabRatio="498" xr2:uid="{BE8A865E-3FDD-4D34-8C1C-83EC50A221F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Arbeitspakete</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>JJ</t>
+  </si>
+  <si>
+    <t>Fertigstellung Prototyp</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -904,30 +907,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,6 +919,32 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1324,13 +1329,13 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B2:Z41"/>
+  <dimension ref="B2:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,29 +1347,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D2" s="74">
+      <c r="D2" s="82">
         <v>2020</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D3" s="19"/>
@@ -1380,13 +1385,13 @@
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="81"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="20"/>
@@ -1427,13 +1432,13 @@
       <c r="N4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="70"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="78"/>
       <c r="T4" s="40" t="s">
         <v>14</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>24.03</v>
       </c>
       <c r="J5" s="18">
-        <v>31.04</v>
+        <v>31.03</v>
       </c>
       <c r="K5" s="41">
         <v>7.04</v>
@@ -1537,7 +1542,7 @@
       <c r="C7" s="36">
         <v>43880</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="68">
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
@@ -1562,14 +1567,14 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="70">
         <v>43886</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="79"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1622,15 +1627,15 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="78">
+      <c r="C10" s="70">
         <v>43893</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="77"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1682,19 +1687,17 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="70">
         <v>43907</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="49">
-        <v>1</v>
-      </c>
+      <c r="H12" s="71"/>
       <c r="I12" s="49"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1745,10 +1748,10 @@
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C14" s="36">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -1756,10 +1759,8 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="64"/>
       <c r="M14" s="53"/>
       <c r="N14" s="3"/>
@@ -1769,17 +1770,17 @@
       <c r="R14" s="3"/>
       <c r="S14" s="13"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="80">
-        <v>43942</v>
+      <c r="B15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="36">
+        <v>43928</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
@@ -1788,9 +1789,11 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
       <c r="L15" s="64"/>
-      <c r="M15" s="81"/>
+      <c r="M15" s="53"/>
       <c r="N15" s="3"/>
       <c r="O15" s="12"/>
       <c r="P15" s="2"/>
@@ -1798,17 +1801,17 @@
       <c r="R15" s="3"/>
       <c r="S15" s="13"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="54"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="36">
-        <v>43953</v>
+      <c r="B16" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="72">
+        <v>43942</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -1819,10 +1822,8 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="64"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
+      <c r="M16" s="73"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="12"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1836,10 +1837,10 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="38">
-        <v>43956</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="36">
+        <v>43953</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
@@ -1850,12 +1851,12 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="64"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="50"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="3"/>
       <c r="S17" s="13"/>
@@ -1866,11 +1867,11 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="78">
-        <v>43956</v>
+      <c r="B18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="38">
+        <v>43954</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -1882,9 +1883,11 @@
       <c r="K18" s="3"/>
       <c r="L18" s="64"/>
       <c r="M18" s="53"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="50">
+        <v>1</v>
+      </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="79"/>
+      <c r="P18" s="49"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
       <c r="S18" s="13"/>
@@ -1895,11 +1898,11 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="36">
-        <v>43963</v>
+      <c r="B19" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="70">
+        <v>43956</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
@@ -1913,23 +1916,21 @@
       <c r="M19" s="53"/>
       <c r="N19" s="3"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="2"/>
+      <c r="P19" s="71"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="4">
-        <v>1</v>
-      </c>
+      <c r="T19" s="4"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="70">
         <v>43963</v>
       </c>
       <c r="D20" s="4"/>
@@ -1948,18 +1949,18 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="82"/>
+      <c r="T20" s="74"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="80">
-        <v>43977</v>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="36">
+        <v>43968</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
@@ -1977,18 +1978,20 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="79"/>
+      <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="36">
-        <v>43991</v>
+      <c r="B22" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="72">
+        <v>43977</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
@@ -2008,40 +2011,46 @@
       <c r="S22" s="13"/>
       <c r="T22" s="4"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="V22" s="71"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2">
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="36">
+        <v>43991</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="F23" s="46"/>
-      <c r="G23" s="28"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="63"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="45"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-    </row>
-    <row r="24" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>31</v>
-      </c>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="F24" s="46"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="28"/>
       <c r="J24" s="46"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="28"/>
       <c r="L24" s="63"/>
       <c r="N24" s="56"/>
       <c r="O24" s="10"/>
@@ -2050,89 +2059,77 @@
       <c r="R24" s="46"/>
       <c r="S24" s="45"/>
       <c r="U24" s="46"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+    </row>
+    <row r="25" spans="2:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="30"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="63"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="45"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="49"/>
-      <c r="V25" s="49"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="49"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="83">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="50">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="X26" s="49"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
+      <c r="D27" s="75">
         <v>3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="E27" s="75">
         <v>3</v>
       </c>
-      <c r="G27" s="2">
+      <c r="F27" s="50">
         <v>3</v>
       </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2153,21 +2150,23 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="49"/>
+      <c r="E28" s="75">
+        <v>3</v>
+      </c>
       <c r="F28" s="3">
         <v>3</v>
       </c>
       <c r="G28" s="2">
         <v>3</v>
       </c>
-      <c r="H28" s="2">
-        <v>3</v>
-      </c>
-      <c r="I28" s="49"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="53"/>
       <c r="L28" s="64"/>
@@ -2186,20 +2185,20 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="49">
-        <v>3</v>
-      </c>
+      <c r="E29" s="49"/>
       <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
       <c r="I29" s="49"/>
       <c r="J29" s="2"/>
       <c r="K29" s="53"/>
@@ -2219,20 +2218,22 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="85">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3</v>
+      </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2">
-        <v>3</v>
-      </c>
-      <c r="I30" s="2">
-        <v>3</v>
-      </c>
-      <c r="J30" s="49"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="53"/>
       <c r="L30" s="64"/>
       <c r="M30" s="53"/>
@@ -2250,20 +2251,20 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="49"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
       <c r="I31" s="2">
         <v>3</v>
       </c>
-      <c r="J31" s="2">
-        <v>3</v>
-      </c>
+      <c r="J31" s="49"/>
       <c r="K31" s="53"/>
       <c r="L31" s="64"/>
       <c r="M31" s="53"/>
@@ -2280,66 +2281,66 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2">
+        <v>3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3</v>
+      </c>
+      <c r="K32" s="53"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="49"/>
-      <c r="V32" s="49"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="49"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2">
-        <v>3</v>
-      </c>
-      <c r="K33" s="53">
-        <v>3</v>
-      </c>
-      <c r="L33" s="64"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="2"/>
@@ -2348,8 +2349,12 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="53"/>
+      <c r="J34" s="2">
+        <v>3</v>
+      </c>
+      <c r="K34" s="53">
+        <v>3</v>
+      </c>
       <c r="L34" s="64"/>
       <c r="M34" s="53"/>
       <c r="N34" s="3"/>
@@ -2361,62 +2366,64 @@
       <c r="T34" s="53"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2">
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2">
         <v>3</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="49"/>
-      <c r="V35" s="49"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="49"/>
-    </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
@@ -2432,10 +2439,10 @@
       <c r="L37" s="64"/>
       <c r="M37" s="53"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="29"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
       <c r="S37" s="13"/>
       <c r="T37" s="53"/>
       <c r="U37" s="2"/>
@@ -2443,9 +2450,9 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
-      <c r="C38" s="6"/>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="3"/>
@@ -2454,48 +2461,73 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="66"/>
+      <c r="L38" s="64"/>
       <c r="M38" s="53"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="16"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="13"/>
       <c r="T38" s="53"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
+    <row r="39" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="27"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
+      <c r="B41" s="34"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B42" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2503,7 +2535,7 @@
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="D2:X2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D36:S36 T36:X38 D7:X35">
+  <conditionalFormatting sqref="D37:S37 T37:X39 D7:X36">
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH("3",D7)))</formula>
     </cfRule>
@@ -2514,15 +2546,15 @@
       <formula>NOT(ISERROR(SEARCH("1",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:X41 D37:S38">
+  <conditionalFormatting sqref="D40:X42 D38:S39">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="3">
-      <formula>NOT(ISERROR(SEARCH("3",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("3",D38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="2">
-      <formula>NOT(ISERROR(SEARCH("2",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("2",D38)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",D37)))</formula>
+      <formula>NOT(ISERROR(SEARCH("1",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
